--- a/Casos Cartera/PAT.xlsx
+++ b/Casos Cartera/PAT.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
-    <sheet name="Cargar Rendición PAC" sheetId="15" r:id="rId1"/>
+    <sheet name="Cargar Rendición PAT" sheetId="15" r:id="rId1"/>
     <sheet name="Generar Nómina de Cargo" sheetId="38" r:id="rId2"/>
     <sheet name="Generar Nómina de Reintento" sheetId="16" r:id="rId3"/>
     <sheet name="Reporte Rendición" sheetId="18" r:id="rId4"/>
     <sheet name="Subir Universo" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cargar Rendición PAC'!$A$2:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cargar Rendición PAT'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -43,36 +43,12 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>TC_Cartera_PAC_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PAC_ArchivoError</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato correcto, el cual posee todas las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo Excel con formato incorrecto, el cual posee informacion correspondientes a las rendiciones de PAC que el banco Santander entrega</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Cargar Redición PAC, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
     <t>Sistema carga archivo de manera exitosa</t>
   </si>
   <si>
     <t>Sistema emite mensaje indicando que el archivo no cumple con el formato establecido</t>
   </si>
   <si>
-    <t>TC_Cartera_PACGenerarNomina_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACGenerarNomina_FechaError</t>
-  </si>
-  <si>
     <t>Validar emisión de nómina de cargo, sin indicar fecha.</t>
   </si>
   <si>
@@ -100,15 +76,6 @@
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
-    <t>TC_Cartera_PACNominaReintento_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACNominaReintento_FechaError</t>
-  </si>
-  <si>
     <t>Validar emisión de nómina de reintento, indicando fecha en la cual existe regitros.</t>
   </si>
   <si>
@@ -133,15 +100,6 @@
     <t>Descarga de archivo excel sin información correspondiente a nómina de reintento</t>
   </si>
   <si>
-    <t>TC_Cartera_PACReporteRendicion_Documento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_Fecha</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACReporteRendicion_FechaError</t>
-  </si>
-  <si>
     <t>Validar emisión de reporte rendición, indicando fecha en la cual existe regitros.</t>
   </si>
   <si>
@@ -166,28 +124,70 @@
     <t>Descarga de archivo excel sin información correspondiente a reporte rendición.</t>
   </si>
   <si>
-    <t>TC_Cartera_PACSubirUniverso_Archivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_PACSubirUniverso_ArchivoError</t>
-  </si>
-  <si>
-    <t>Lectura es exitosa, debe borra los campos a leer del Excel: CreCodigoConvenio, CreBancoDebito, CreCodigoServicio, CreBancoDebito, Fecha Registro.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que no tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que tengan activado el PAC.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir Universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Subir universo, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
     <t>Sistema no modificar los créditos ya que no tienen PAC activado.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATCargar_Archivo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATCargar_ArchivoError</t>
+  </si>
+  <si>
+    <t>Validar la carga de archivo con formato correcto, el cual contiene información correspondientes a pagos enviados a transbank.</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATGenerarNomina_Documento</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATGenerarNomina_Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATGenerarNomina_FechaError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATNominaReintento_Documento</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATNominaReintento_Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATNominaReintento_FechaError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATReporteRendicion_Documento</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATReporteRendicion_Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATReporteRendicion_FechaError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATSubirUniverso_Archivo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_PATSubirUniverso_ArchivoError</t>
+  </si>
+  <si>
+    <t>Si el crédito no está en Cartera se guarda en SDT y se imprime en PDF.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Subir Universo, hacer clic en boton browser, seleccionar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Subir universo, hacer clic en boton browser, seleccionar archivo excel</t>
+  </si>
+  <si>
+    <t>Validar la carga de archivo con formato correcto, el cual posee créditos que no están en Cartera.</t>
+  </si>
+  <si>
+    <t>Validar la carga de archivo con formato correcto, el cual posee los créditos que no tengan activado el PAT.</t>
+  </si>
+  <si>
+    <t>Validar la carga de archivo con formato incorrecto, el cual contiene información de créditos que no tienen activado el PAT.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Cargar Redición PAT, hacer clic en boton browser, seleccionar archivo excel</t>
   </si>
 </sst>
 </file>
@@ -599,15 +599,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="129.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="175" style="4" customWidth="1"/>
     <col min="4" max="4" width="86.85546875" style="4" customWidth="1"/>
   </cols>
@@ -634,30 +634,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,8 +883,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,44 +917,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1174,8 +1174,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,44 +1208,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,44 +1500,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1761,7 @@
     <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="144.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,30 +1786,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/PAT.xlsx
+++ b/Casos Cartera/PAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cargar Rendición PAT" sheetId="15" r:id="rId1"/>
@@ -58,21 +58,12 @@
     <t>Validar emisión de nómina de cargo, indicando fecha en la cual no hay regitros.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel con información correspondiente a nómina de cargo</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel sin información correspondiente a nómina de cargo</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Cargo, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
@@ -85,15 +76,6 @@
     <t>Validar emisión de nómina de reintento, sin indicar fecha.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Generar Nómina de Reintento, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel con información correspondiente a nómina de reintento</t>
   </si>
   <si>
@@ -109,24 +91,12 @@
     <t>Validar emisión de reporte rendición, sin indicar fecha.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAC - sub modulo Reporte Rendición, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel con información correspondiente a reporte rendición</t>
   </si>
   <si>
     <t>Descarga de archivo excel sin información correspondiente a reporte rendición.</t>
   </si>
   <si>
-    <t>Sistema no modificar los créditos ya que no tienen PAC activado.</t>
-  </si>
-  <si>
     <t>TC_Cartera_PATCargar_Archivo</t>
   </si>
   <si>
@@ -188,6 +158,36 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Cargar Redición PAT, hacer clic en boton browser, seleccionar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Reintento, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Reintento, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Reporte Rendición, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Reporte Rendición, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Reporte Rendición, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema no modificar los créditos ya que no tienen PAT activado.</t>
   </si>
 </sst>
 </file>
@@ -599,9 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +634,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -884,7 +884,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,44 +917,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1174,8 +1174,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,44 +1208,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,44 +1500,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,30 +1786,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
